--- a/backend/attendance.xlsx
+++ b/backend/attendance.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>empId</t>
   </si>
@@ -35,6 +35,15 @@
   </si>
   <si>
     <t>6:18:48 pm</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2026-01-06</t>
+  </si>
+  <si>
+    <t>10:00:22 pm</t>
   </si>
 </sst>
 </file>
@@ -411,7 +420,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -445,6 +454,17 @@
       </c>
       <c r="C3" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
